--- a/data/trans_dic/P57_AC_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Habitat-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeCdic</t>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P57_AC_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P57_AC_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,35%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,22%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,47%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>56,28; 74,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>61,77; 78,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>62,62; 79,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>51,64; 72,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>66,37; 81,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>70,26; 86,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>71,07; 85,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>52,73; 67,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>64,1; 76,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>68,24; 79,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>69,57; 80,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>55,25; 67,6</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,42%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,54%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,95%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,02%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>72,81; 80,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>55,9; 64,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>76,26; 83,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>53,96; 63,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>72,65; 79,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>65,04; 72,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>80,69; 86,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>59,36; 66,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>73,79; 78,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>61,6; 67,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>79,65; 84,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>57,98; 63,83</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,56%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,51%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,85%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,3%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>64,7; 70,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>62,61; 69,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>73,83; 79,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>49,68; 66,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>69,83; 75,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>70,12; 75,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>80,68; 85,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>64,3; 69,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>67,92; 72,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>67,5; 71,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>78,01; 81,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>59,32; 67,07</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,52%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,87%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,7%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,15%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>58,11; 65,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>59,96; 67,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>80,73; 86,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>60,43; 68,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>61,58; 68,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>64,17; 71,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>81,05; 86,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>59,36; 66,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>60,9; 66,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>63,49; 68,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>81,71; 85,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>61,04; 66,79</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,79%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,57%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,31%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,14%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,45%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,9%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,85%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,22%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>64,91; 70,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>69,32; 75,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>76,04; 81,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>56,69; 63,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>66,14; 71,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>76,75; 81,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>76,18; 81,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>56,96; 63,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>66,51; 70,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>73,95; 77,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>76,99; 80,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>57,78; 62,29</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,52%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,38%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,85%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,61%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,43%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>66,57; 69,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>64,64; 67,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>77,74; 80,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>58,09; 63,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>69,18; 72,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>71,74; 74,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,88; 83,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>61,76; 64,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>68,15; 70,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>68,75; 70,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>79,62; 81,57</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>60,77; 63,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_AC_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>66,07%</t>
+          <t>74,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>69,95%</t>
+          <t>61,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>71,6%</t>
+          <t>78,42%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>62,87%</t>
+          <t>58,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>74,72%</t>
+          <t>75,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>78,49%</t>
+          <t>70,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>79,12%</t>
+          <t>83,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60,36%</t>
+          <t>61,75%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>70,35%</t>
+          <t>75,42%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>74,22%</t>
+          <t>66,1%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>75,32%</t>
+          <t>80,82%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>61,47%</t>
+          <t>59,99%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,28; 74,48</t>
+          <t>71,54; 77,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>61,77; 78,16</t>
+          <t>57,98; 65,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,62; 79,56</t>
+          <t>74,83; 81,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,64; 72,45</t>
+          <t>53,52; 62,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>66,37; 81,17</t>
+          <t>72,27; 79,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>70,26; 86,17</t>
+          <t>66,84; 73,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>71,07; 85,95</t>
+          <t>80,37; 85,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,73; 67,19</t>
+          <t>58,06; 64,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>64,1; 76,54</t>
+          <t>73,26; 77,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>68,24; 79,63</t>
+          <t>63,53; 68,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>69,57; 80,79</t>
+          <t>78,52; 82,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>55,25; 67,6</t>
+          <t>57,16; 62,63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>76,64%</t>
+          <t>67,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>60,19%</t>
+          <t>65,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>79,83%</t>
+          <t>76,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,06%</t>
+          <t>50,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>76,21%</t>
+          <t>72,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,91%</t>
+          <t>73,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>84,07%</t>
+          <t>83,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>62,86%</t>
+          <t>66,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>76,42%</t>
+          <t>70,15%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>64,54%</t>
+          <t>69,51%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>79,85%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>61,02%</t>
+          <t>57,48%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,81; 80,35</t>
+          <t>64,7; 70,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,9; 64,15</t>
+          <t>62,61; 69,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,26; 83,38</t>
+          <t>73,83; 79,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,96; 63,06</t>
+          <t>24,41; 65,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>72,65; 79,33</t>
+          <t>69,83; 75,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,04; 72,7</t>
+          <t>70,12; 75,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,69; 86,93</t>
+          <t>80,68; 85,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>59,36; 66,29</t>
+          <t>63,39; 68,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>73,79; 78,73</t>
+          <t>67,92; 72,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>61,6; 67,39</t>
+          <t>67,5; 71,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>79,65; 84,32</t>
+          <t>78,01; 81,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>57,98; 63,83</t>
+          <t>37,66; 65,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>67,56%</t>
+          <t>61,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>65,93%</t>
+          <t>63,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>76,55%</t>
+          <t>83,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>61,53%</t>
+          <t>64,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>72,72%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>73,02%</t>
+          <t>68,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>83,09%</t>
+          <t>83,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>67,02%</t>
+          <t>61,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>70,15%</t>
+          <t>63,52%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>69,51%</t>
+          <t>65,87%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>79,85%</t>
+          <t>83,7%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>64,3%</t>
+          <t>62,61%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,7; 70,62</t>
+          <t>58,11; 65,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,61; 69,1</t>
+          <t>59,96; 67,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,83; 79,1</t>
+          <t>80,73; 86,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49,68; 66,36</t>
+          <t>59,61; 68,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>69,83; 75,4</t>
+          <t>61,58; 68,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>70,12; 75,82</t>
+          <t>64,17; 71,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>80,68; 85,1</t>
+          <t>81,05; 86,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>64,3; 69,69</t>
+          <t>52,43; 65,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>67,92; 72,3</t>
+          <t>60,9; 66,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>67,5; 71,55</t>
+          <t>63,49; 68,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>78,01; 81,56</t>
+          <t>81,71; 85,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>59,32; 67,07</t>
+          <t>57,03; 65,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>61,81%</t>
+          <t>67,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>63,56%</t>
+          <t>72,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>83,62%</t>
+          <t>78,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>64,78%</t>
+          <t>58,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>65,22%</t>
+          <t>69,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>79,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>83,78%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,55%</t>
+          <t>56,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>63,52%</t>
+          <t>68,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>65,87%</t>
+          <t>75,9%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>83,7%</t>
+          <t>78,85%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>64,15%</t>
+          <t>57,23%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,11; 65,55</t>
+          <t>64,91; 70,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,96; 67,53</t>
+          <t>69,32; 75,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,73; 86,18</t>
+          <t>76,04; 81,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,43; 68,82</t>
+          <t>54,78; 62,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,58; 68,65</t>
+          <t>66,14; 71,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,17; 71,38</t>
+          <t>76,75; 81,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,05; 86,39</t>
+          <t>76,18; 81,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,36; 66,93</t>
+          <t>42,05; 61,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,9; 66,16</t>
+          <t>66,51; 70,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,49; 68,36</t>
+          <t>73,95; 77,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>81,71; 85,5</t>
+          <t>76,99; 80,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>61,04; 66,79</t>
+          <t>50,48; 60,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>67,79%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>72,43%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>78,57%</t>
+          <t>79,06%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>60,31%</t>
+          <t>56,84%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>69,05%</t>
+          <t>70,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>79,03%</t>
+          <t>73,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>79,1%</t>
+          <t>82,1%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>60,14%</t>
+          <t>61,07%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>68,45%</t>
+          <t>69,38%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>75,9%</t>
+          <t>69,85%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>78,85%</t>
+          <t>80,61%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>60,22%</t>
+          <t>58,95%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>64,91; 70,68</t>
+          <t>66,57; 69,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,32; 75,28</t>
+          <t>64,64; 67,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,04; 81,21</t>
+          <t>77,74; 80,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>56,69; 63,8</t>
+          <t>42,4; 61,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>66,14; 71,92</t>
+          <t>69,18; 72,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>76,75; 81,74</t>
+          <t>71,74; 74,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>76,18; 81,64</t>
+          <t>80,88; 83,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>56,96; 63,13</t>
+          <t>56,52; 63,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>66,51; 70,49</t>
+          <t>68,15; 70,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>73,95; 77,88</t>
+          <t>68,75; 70,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>76,99; 80,71</t>
+          <t>79,62; 81,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>57,78; 62,29</t>
+          <t>51,83; 61,76</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>67,99%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>66,35%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>79,06%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>61,52%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>70,73%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>73,21%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>82,1%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>63,27%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>69,38%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>69,85%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>80,61%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>62,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>66,57; 69,65</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>64,64; 67,99</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>77,74; 80,49</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>58,09; 63,65</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>69,18; 72,21</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>71,74; 74,77</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>80,88; 83,49</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>61,76; 64,88</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>68,15; 70,43</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>68,75; 70,93</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>79,62; 81,57</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>60,77; 63,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P57_AC_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71,54; 77,97</t>
+          <t>71,52; 77,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,98; 65,21</t>
+          <t>58,07; 65,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,83; 81,45</t>
+          <t>74,76; 81,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,52; 62,46</t>
+          <t>53,51; 62,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>72,27; 79,13</t>
+          <t>72,85; 79,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>66,84; 73,63</t>
+          <t>66,72; 73,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>80,37; 85,91</t>
+          <t>80,31; 86,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>58,06; 64,63</t>
+          <t>58,55; 65,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>73,26; 77,71</t>
+          <t>73,02; 77,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>63,53; 68,66</t>
+          <t>63,21; 68,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>78,52; 82,95</t>
+          <t>78,5; 82,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>57,16; 62,63</t>
+          <t>57,22; 62,62</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64,7; 70,62</t>
+          <t>64,31; 70,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,61; 69,1</t>
+          <t>62,65; 68,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,83; 79,1</t>
+          <t>73,88; 79,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,41; 65,19</t>
+          <t>28,03; 65,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>69,83; 75,4</t>
+          <t>69,36; 75,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,12; 75,82</t>
+          <t>70,11; 75,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,68; 85,1</t>
+          <t>80,76; 85,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>63,39; 68,86</t>
+          <t>63,54; 68,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>67,92; 72,3</t>
+          <t>68,08; 72,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>67,5; 71,55</t>
+          <t>67,37; 71,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>78,01; 81,56</t>
+          <t>78,06; 81,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,66; 65,78</t>
+          <t>39,08; 65,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,11; 65,55</t>
+          <t>57,88; 65,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,96; 67,53</t>
+          <t>59,74; 67,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,73; 86,18</t>
+          <t>80,47; 86,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>59,61; 68,28</t>
+          <t>59,68; 68,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,58; 68,65</t>
+          <t>61,76; 68,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,17; 71,38</t>
+          <t>64,75; 71,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,05; 86,39</t>
+          <t>80,72; 86,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,43; 65,59</t>
+          <t>51,68; 65,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>60,9; 66,16</t>
+          <t>61,09; 66,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63,49; 68,36</t>
+          <t>63,36; 68,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>81,71; 85,5</t>
+          <t>81,44; 85,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>57,03; 65,38</t>
+          <t>57,41; 65,7</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>64,91; 70,68</t>
+          <t>64,8; 70,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,32; 75,28</t>
+          <t>69,19; 75,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,04; 81,21</t>
+          <t>75,68; 81,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>54,78; 62,06</t>
+          <t>54,73; 62,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,14; 71,92</t>
+          <t>66,22; 71,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,75; 81,74</t>
+          <t>76,29; 81,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>76,18; 81,64</t>
+          <t>76,25; 81,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,05; 61,03</t>
+          <t>43,09; 60,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,51; 70,49</t>
+          <t>66,51; 70,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,95; 77,88</t>
+          <t>73,83; 77,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>76,99; 80,71</t>
+          <t>77,03; 80,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,48; 60,11</t>
+          <t>49,41; 60,09</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,57; 69,65</t>
+          <t>66,31; 69,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>64,64; 67,99</t>
+          <t>64,6; 68,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>77,74; 80,49</t>
+          <t>77,55; 80,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42,4; 61,78</t>
+          <t>42,97; 61,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>69,18; 72,21</t>
+          <t>69,09; 72,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>71,74; 74,77</t>
+          <t>71,68; 74,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,88; 83,49</t>
+          <t>80,87; 83,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>56,52; 63,26</t>
+          <t>56,56; 63,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>68,15; 70,43</t>
+          <t>68,26; 70,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>68,75; 70,93</t>
+          <t>68,72; 70,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>79,62; 81,57</t>
+          <t>79,66; 81,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,83; 61,76</t>
+          <t>50,74; 61,7</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1037</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1261</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>519666</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>430976</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>527490</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>366201</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>522888</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>489113</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>557629</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>407975</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1042555</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>920090</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1085119</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>774177</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>496378; 540950</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>405207; 455635</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>502851; 546309</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>337033; 393204</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>501458; 544204</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>463144; 512410</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>538068; 576154</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>386845; 429645</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1009402; 1072555</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>879945; 954139</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1054010; 1111023</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>738470; 808162</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1253</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1528</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1689</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>649077</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>664788</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>779541</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>598455</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>703410</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>750691</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>864095</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>626716</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1352487</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1415478</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1643637</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1225171</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>617804; 678536</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>631720; 692145</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>752342; 806088</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>331826; 770058</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>670877; 729637</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>720832; 781264</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>839871; 886873</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>602083; 652587</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1312626; 1390552</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1372000; 1458049</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1606670; 1681533</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>833059; 1398601</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1183</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>419399</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>476937</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>628594</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>447636</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>445968</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>526913</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>649950</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>441556</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>865367</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1003850</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1278544</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>889191</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>392699; 444977</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>448231; 504298</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>604903; 649349</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>416982; 478486</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>422353; 469907</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>501028; 554515</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>626173; 669987</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>372887; 472125</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>832271; 903381</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>965637; 1043681</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1243908; 1307597</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>815294; 933093</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1353</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1437</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1478</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1605</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>637725</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>682675</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>734044</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>536323</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>716444</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>823660</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>819532</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>604981</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1354169</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1506335</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1553575</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1141304</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>609549; 665668</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>652199; 709492</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>707005; 758235</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>501323; 568819</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>687155; 745708</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>795082; 848113</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>789930; 844935</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>464514; 653544</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1315739; 1395058</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1465327; 1542739</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1517641; 1587517</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>985381; 1198279</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2098</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2541</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2178</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2309</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2395</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2708</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3498</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4493</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5249</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5676</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2225867</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2255376</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2669669</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1948615</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2388711</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2590376</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2891205</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2081228</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4614577</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4845753</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5560875</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4029843</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2170969; 2275537</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2195742; 2312300</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2618813; 2715505</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1473323; 2122379</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2333250; 2435811</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2536064; 2640140</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2847958; 2934358</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1927645; 2155887</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4539778; 4688116</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4767294; 4924822</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5495187; 5628988</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3468951; 4218069</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>